--- a/file excel viet hoa.xlsx
+++ b/file excel viet hoa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran Quang Linh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCKH\networkminer_vie_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85AE1662-BDC3-471A-9FA4-9ED6CACE9F3B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB5D81C7-EDEE-4432-9DF8-AC127FAF5AD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="535">
   <si>
     <t>Project</t>
   </si>
@@ -1168,463 +1168,469 @@
     <t>Download</t>
   </si>
   <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>Chi tiết tệp</t>
-  </si>
-  <si>
-    <t>Tải [gì đó]</t>
-  </si>
-  <si>
-    <t>tập tin pcap tải</t>
-  </si>
-  <si>
-    <t>NetworkMiner là một mã nguồn mở Mạng Forensic Analysis Tool (NFAT) với một công cụ chụp built-in thụ động mạng sniffer / gói. Nó có thể phát hiện của hệ điều hành, phiên, tên máy chủ, cổng mở vv mà không đặt bất kỳ giao thông trên mạng. NetworkMiner cũng có thể phân tích các file pcap để phân tích off-line.
+    <t>Phiên bản</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập</t>
+  </si>
+  <si>
+    <t>Tin nhắn</t>
+  </si>
+  <si>
+    <t>Tải RIPE DB</t>
+  </si>
+  <si>
+    <t>Mở rộng tất cả</t>
+  </si>
+  <si>
+    <t>Thu gọn tất cả</t>
+  </si>
+  <si>
+    <t>Sao chép văn bản</t>
+  </si>
+  <si>
+    <t>Sao chép tên tham số</t>
+  </si>
+  <si>
+    <t>Sao chép giá trị tham số</t>
+  </si>
+  <si>
+    <t>Dừng lại</t>
+  </si>
+  <si>
+    <t>Khởi đầu</t>
+  </si>
+  <si>
+    <t>Địa chỉ IP (tăng dần)</t>
+  </si>
+  <si>
+    <t>Địa chỉ MAC (tăng dần)</t>
+  </si>
+  <si>
+    <t>Số cổng TCP mở (giảm dần)</t>
+  </si>
+  <si>
+    <t>Hệ điều hành</t>
+  </si>
+  <si>
+    <t>Router Hops Khoảng cách (tăng dần)</t>
+  </si>
+  <si>
+    <t>Form tìm kiếm</t>
+  </si>
+  <si>
+    <t>Trường hợp nhạy cảm</t>
+  </si>
+  <si>
+    <t>Tìm thấy:</t>
+  </si>
+  <si>
+    <t>Khung nr.</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>Dấu thời gian</t>
+  </si>
+  <si>
+    <t>đường dẫn tập tin được xây dựng lại</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Các tập tin</t>
+  </si>
+  <si>
+    <t>Từ</t>
+  </si>
+  <si>
+    <t>Đến</t>
+  </si>
+  <si>
+    <t>đặc tính</t>
+  </si>
+  <si>
+    <t>Giá trị</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
+  </si>
+  <si>
+    <t>đăng nhập hợp lệ</t>
+  </si>
+  <si>
+    <t>dấu thời gian đăng nhập</t>
+  </si>
+  <si>
+    <t>Mặt nạ mật khẩu</t>
+  </si>
+  <si>
+    <t>Hiện NTLM thách thức phản ứng</t>
+  </si>
+  <si>
+    <t>Id cuộc gọi</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu</t>
+  </si>
+  <si>
+    <t>Cổng máy chủ</t>
+  </si>
+  <si>
+    <t>ID giao dịch</t>
+  </si>
+  <si>
+    <t>Kiểu</t>
+  </si>
+  <si>
+    <t>Alexa Lên trên 1M</t>
+  </si>
+  <si>
+    <t>tên tham số</t>
+  </si>
+  <si>
+    <t>Giá trị tham số</t>
+  </si>
+  <si>
+    <t>Cổng nguồn</t>
+  </si>
+  <si>
+    <t>cổng đích</t>
+  </si>
+  <si>
+    <t>Thêm từ khóa từ tập tin văn bản</t>
+  </si>
+  <si>
+    <t>Thêm vào</t>
+  </si>
+  <si>
+    <t>Nhập từ khóa như chuỗi như "foo" hoặc ở định dạng hex như "0x626172"</t>
+  </si>
+  <si>
+    <t>từ khóa</t>
+  </si>
+  <si>
+    <t>Bối cảnh</t>
+  </si>
+  <si>
+    <t>Từ khóa</t>
+  </si>
+  <si>
+    <t>thay đổi từ điển</t>
+  </si>
+  <si>
+    <t>Không phân tích cú pháp - Chỉ tìm kiếm trong các giao thức không phân tích cú pháp</t>
+  </si>
+  <si>
+    <t>bất thường</t>
+  </si>
+  <si>
+    <t>Có một phiên bản mới hơn của NetworkMiner sẵn. Vui lòng cập nhật lên phiên bản 1.2.3.</t>
+  </si>
+  <si>
+    <t>cập nhật</t>
+  </si>
+  <si>
+    <t>Tải về</t>
+  </si>
+  <si>
+    <t>Đang tải tập tin PCAP</t>
+  </si>
+  <si>
+    <t>Đang tải [something]</t>
+  </si>
+  <si>
+    <t>Đồng ý</t>
+  </si>
+  <si>
+    <t>Mở ghi chú phiên bản mới</t>
+  </si>
+  <si>
+    <t>Bảng điều khiển các trường hợp (Case)</t>
+  </si>
+  <si>
+    <t>Nạp lại tệp trường hợp (Case)</t>
+  </si>
+  <si>
+    <t>Tên tệp tin</t>
+  </si>
+  <si>
+    <t>Dọn dẹp</t>
+  </si>
+  <si>
+    <t>không</t>
+  </si>
+  <si>
+    <t>Từ điển đã được tải</t>
+  </si>
+  <si>
+    <t>Xóa bỏ</t>
+  </si>
+  <si>
+    <t>Máy đích</t>
+  </si>
+  <si>
+    <t>Máy  nguồn</t>
+  </si>
+  <si>
+    <t>Cổng đích</t>
+  </si>
+  <si>
+    <t>Máy nguồn</t>
+  </si>
+  <si>
+    <t>Số Frame</t>
+  </si>
+  <si>
+    <t>Máy khách</t>
+  </si>
+  <si>
+    <t>Máy chủ</t>
+  </si>
+  <si>
+    <t>Protocol (tầng ứng dụng)</t>
+  </si>
+  <si>
+    <t>Bộ đệm Frame để phân tích:</t>
+  </si>
+  <si>
+    <t>Đọc từ bộ nhớ Packet Cache</t>
+  </si>
+  <si>
+    <t>Nhận pcap qua IP</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập (Credentials)</t>
+  </si>
+  <si>
+    <t>Siêu dữ liệu (metadata)</t>
+  </si>
+  <si>
+    <t>Chi tiết tệp tin</t>
+  </si>
+  <si>
+    <t>NetworkMiner là một mã nguồn mở Network Forensic Analysis Tool (NFAT) với một công cụ chụp built-in thụ động mạng sniffer / gói. Nó có thể phát hiện của hệ điều hành, phiên, tên máy chủ, cổng mở vv.. mà không đặt bất kỳ giao thông trên mạng. NetworkMiner cũng có thể phân tích các file pcap để phân tích off-line.
  Tác giả: Erik Hjelmvik, &lt;erik.hjelmvik [at] gmail.com&gt;
  Website: http://www.netresec.com/
  NetworkMiner là phần mềm miễn phí; bạn có thể phát hành lại nó và / hoặc sửa đổi nó với điều kiện của GNU General Public License.</t>
   </si>
   <si>
-    <t>&amp;ĐƯỢC</t>
-  </si>
-  <si>
-    <t>Phiên bản</t>
-  </si>
-  <si>
-    <t>sản phẩm</t>
-  </si>
-  <si>
-    <t>bản quyền</t>
-  </si>
-  <si>
-    <t>Khung đệm để phân tích:</t>
-  </si>
-  <si>
-    <t>&amp;Mở</t>
-  </si>
-  <si>
-    <t>Đọc từ gói &amp; bộ nhớ cache</t>
-  </si>
-  <si>
-    <t>&amp; Nhận pcap qua IP</t>
-  </si>
-  <si>
-    <t>Thông tin đăng nhập</t>
-  </si>
-  <si>
-    <t>tệp siêu dữ liệu</t>
-  </si>
-  <si>
-    <t>hosts</t>
-  </si>
-  <si>
-    <t>Tin nhắn</t>
-  </si>
-  <si>
-    <t>Thông số</t>
-  </si>
-  <si>
-    <t>phiên</t>
-  </si>
-  <si>
-    <t>&amp; Export File</t>
-  </si>
-  <si>
-    <t>&amp;In báo cáo</t>
-  </si>
-  <si>
-    <t>Lối thoát</t>
-  </si>
-  <si>
-    <t>&amp;Tập tin</t>
-  </si>
-  <si>
-    <t>&amp; Cài đặt</t>
-  </si>
-  <si>
-    <t>Tải RIPE DB</t>
-  </si>
-  <si>
-    <t>&amp; Bắt đầu chụp</t>
-  </si>
-  <si>
-    <t>S &amp; chụp đầu</t>
-  </si>
-  <si>
-    <t>rõ ràng GUI</t>
-  </si>
-  <si>
-    <t>&amp; Xóa chụp dữ liệu</t>
-  </si>
-  <si>
-    <t>Xóa GUI và loại bỏ tất cả các file trong AssembledFiles và thư mục Captures</t>
-  </si>
-  <si>
-    <t>&amp;Công cụ</t>
-  </si>
-  <si>
-    <t>Nhận &amp; Nâng cấp Mã</t>
-  </si>
-  <si>
-    <t>&amp; Authenticate</t>
-  </si>
-  <si>
-    <t>&amp;Kiểm tra cập nhật</t>
-  </si>
-  <si>
-    <t>Về &amp; NetworkMiner</t>
-  </si>
-  <si>
-    <t>&amp;Cứu giúp</t>
-  </si>
-  <si>
-    <t>Mở rộng tất cả</t>
-  </si>
-  <si>
-    <t>Thu gọn tất cả</t>
-  </si>
-  <si>
-    <t>Sao chép văn bản</t>
-  </si>
-  <si>
-    <t>Set chủ Màu</t>
-  </si>
-  <si>
-    <t>Di chuyển chủ Màu</t>
-  </si>
-  <si>
-    <t>Sao chép tên tham số</t>
-  </si>
-  <si>
-    <t>Sao chép giá trị tham số</t>
-  </si>
-  <si>
-    <t>Hiện Metadata</t>
-  </si>
-  <si>
-    <t>thư mục mở mẹ</t>
-  </si>
-  <si>
-    <t>Di chuyển tập tin được chọn từ Case</t>
-  </si>
-  <si>
-    <t>Gỡ bỏ các file được lựa chọn và Nạp Case Files</t>
-  </si>
-  <si>
-    <t>CSV (giá trị bằng dấu phẩy) | * .csv | JSON (CASE / UCO) | * .json | XML | * .xml | Tất cả các file |. * *</t>
-  </si>
-  <si>
-    <t>Xuất khẩu sang CASE, CSV hoặc tập tin XML</t>
-  </si>
-  <si>
-    <t>tập tin văn bản | * .txt | All files | * *.</t>
-  </si>
-  <si>
-    <t>Đặt QUẢNG CÁO Màu</t>
-  </si>
-  <si>
-    <t>Đặt Internet Tracker Màu</t>
-  </si>
-  <si>
-    <t>Thu gọn tất cả Nhưng chọn</t>
-  </si>
-  <si>
-    <t>Chọn Node Chánh</t>
-  </si>
-  <si>
-    <t>Lọc</t>
-  </si>
-  <si>
-    <t>Dừng lại</t>
-  </si>
-  <si>
-    <t>Khởi đầu</t>
-  </si>
-  <si>
-    <t>Sắp xếp các host trên:</t>
-  </si>
-  <si>
-    <t>Địa chỉ IP (tăng dần)</t>
-  </si>
-  <si>
-    <t>Địa chỉ MAC (tăng dần)</t>
-  </si>
-  <si>
-    <t>hostname</t>
-  </si>
-  <si>
-    <t>Các gói tin gửi (giảm dần)</t>
-  </si>
-  <si>
-    <t>Gói nhận (giảm dần)</t>
-  </si>
-  <si>
-    <t>Bytes Sent (giảm dần)</t>
-  </si>
-  <si>
-    <t>Bytes nhận (giảm dần)</t>
-  </si>
-  <si>
-    <t>Số cổng TCP mở (giảm dần)</t>
-  </si>
-  <si>
-    <t>Hệ điều hành</t>
-  </si>
-  <si>
-    <t>Router Hops Khoảng cách (tăng dần)</t>
-  </si>
-  <si>
-    <t>Sắp xếp và Refresh</t>
-  </si>
-  <si>
-    <t>Form tìm kiếm</t>
-  </si>
-  <si>
-    <t>Trường hợp nhạy cảm</t>
-  </si>
-  <si>
-    <t>Tìm thấy</t>
-  </si>
-  <si>
-    <t>Tìm thấy:</t>
-  </si>
-  <si>
-    <t>trình duyệt</t>
-  </si>
-  <si>
-    <t>Khung nr.</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>Sự mở rộng</t>
-  </si>
-  <si>
-    <t>Kích thước</t>
-  </si>
-  <si>
-    <t>chủ nguồn</t>
-  </si>
-  <si>
-    <t>cổng S.</t>
-  </si>
-  <si>
-    <t>cổng D.</t>
-  </si>
-  <si>
-    <t>Nghị định thư</t>
-  </si>
-  <si>
-    <t>Dấu thời gian</t>
-  </si>
-  <si>
-    <t>đường dẫn tập tin được xây dựng lại</t>
-  </si>
-  <si>
-    <t>Chi tiết</t>
-  </si>
-  <si>
-    <t>Các tập tin</t>
-  </si>
-  <si>
-    <t>hình ảnh</t>
-  </si>
-  <si>
-    <t>Từ</t>
-  </si>
-  <si>
-    <t>Đến</t>
-  </si>
-  <si>
-    <t>Môn học</t>
-  </si>
-  <si>
-    <t>đặc tính</t>
-  </si>
-  <si>
-    <t>Giá trị</t>
-  </si>
-  <si>
-    <t>attachement</t>
-  </si>
-  <si>
-    <t>khách hàng</t>
-  </si>
-  <si>
-    <t>máy chủ</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập</t>
-  </si>
-  <si>
-    <t>Mật khẩu</t>
-  </si>
-  <si>
-    <t>đăng nhập hợp lệ</t>
-  </si>
-  <si>
-    <t>dấu thời gian đăng nhập</t>
-  </si>
-  <si>
-    <t>Mặt nạ mật khẩu</t>
-  </si>
-  <si>
-    <t>Hiện NTLM thách thức phản ứng</t>
-  </si>
-  <si>
-    <t>Chơi</t>
-  </si>
-  <si>
-    <t>thời gian</t>
-  </si>
-  <si>
-    <t>Id cuộc gọi</t>
-  </si>
-  <si>
-    <t>nguồn</t>
-  </si>
-  <si>
-    <t>Nơi Đến</t>
-  </si>
-  <si>
-    <t>Xuất khẩu</t>
-  </si>
-  <si>
-    <t>client host</t>
-  </si>
-  <si>
-    <t>cổng C.</t>
-  </si>
-  <si>
-    <t>Máy chủ lưu trữ</t>
-  </si>
-  <si>
-    <t>Protocol (lớp ứng dụng)</t>
-  </si>
-  <si>
-    <t>Thời gian bắt đầu</t>
-  </si>
-  <si>
-    <t>Cảng khách hàng</t>
-  </si>
-  <si>
-    <t>Cổng máy chủ</t>
-  </si>
-  <si>
-    <t>DNS TTL (thời gian)</t>
-  </si>
-  <si>
-    <t>ID giao dịch</t>
-  </si>
-  <si>
-    <t>Kiểu</t>
-  </si>
-  <si>
-    <t>DNS trả lời</t>
-  </si>
-  <si>
-    <t>Alexa Lên trên 1M</t>
-  </si>
-  <si>
-    <t>tên tham số</t>
-  </si>
-  <si>
-    <t>Giá trị tham số</t>
-  </si>
-  <si>
-    <t>số khung</t>
-  </si>
-  <si>
-    <t>Cổng nguồn</t>
-  </si>
-  <si>
-    <t>cổng đích</t>
-  </si>
-  <si>
-    <t>Thêm từ khóa từ tập tin văn bản</t>
-  </si>
-  <si>
-    <t>Thêm vào</t>
-  </si>
-  <si>
-    <t>hình thức đầu vào từ khóa</t>
-  </si>
-  <si>
-    <t>Nhập từ khóa như chuỗi như "foo" hoặc ở định dạng hex như "0x626172"</t>
-  </si>
-  <si>
-    <t>Tẩy</t>
-  </si>
-  <si>
-    <t>từ khóa</t>
-  </si>
-  <si>
-    <t>Bối cảnh</t>
-  </si>
-  <si>
-    <t>Máy chủ nguồn</t>
-  </si>
-  <si>
-    <t>điểm đến máy chủ</t>
-  </si>
-  <si>
-    <t>điểm đến Cảng</t>
-  </si>
-  <si>
-    <t>Từ khóa</t>
-  </si>
-  <si>
-    <t>thay đổi từ điển</t>
-  </si>
-  <si>
-    <t>tìm kiếm dạng cleartext:</t>
-  </si>
-  <si>
-    <t>Toàn bộ - Tìm kiếm dữ liệu gói đầy đủ trong tất cả các gói</t>
-  </si>
-  <si>
-    <t>lớp ứng dụng - Tìm kiếm payload của TCP và UDP gói</t>
-  </si>
-  <si>
-    <t>Không phân tích cú pháp - Chỉ tìm kiếm trong các giao thức không phân tích cú pháp</t>
-  </si>
-  <si>
-    <t>Khuyết tật - Disable tìm kiếm dạng cleartext</t>
-  </si>
-  <si>
-    <t>không ai</t>
-  </si>
-  <si>
-    <t>Từ điển Loaded:</t>
-  </si>
-  <si>
-    <t>Thông thoáng</t>
-  </si>
-  <si>
-    <t>cleartext</t>
-  </si>
-  <si>
-    <t>bất thường</t>
-  </si>
-  <si>
-    <t>Nạp lại Case Files</t>
-  </si>
-  <si>
-    <t>trường hợp Bảng điều chỉnh</t>
-  </si>
-  <si>
-    <t>Có một phiên bản mới hơn của NetworkMiner sẵn. Vui lòng cập nhật lên phiên bản 1.2.3.</t>
-  </si>
-  <si>
-    <t>cập nhật</t>
-  </si>
-  <si>
-    <t>Mở phiên bản Note</t>
-  </si>
-  <si>
-    <t>Tải về</t>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Bản quyền</t>
+  </si>
+  <si>
+    <t>Mở</t>
+  </si>
+  <si>
+    <t>Tệp tin siêu dữ liệu</t>
+  </si>
+  <si>
+    <t>Các máy (Hosts)</t>
+  </si>
+  <si>
+    <t>Các tin nhắn</t>
+  </si>
+  <si>
+    <t>Các thông số</t>
+  </si>
+  <si>
+    <t>Các phiên</t>
+  </si>
+  <si>
+    <t>Xuất ra file</t>
+  </si>
+  <si>
+    <t>In báo cáo</t>
+  </si>
+  <si>
+    <t>Thoát</t>
+  </si>
+  <si>
+    <t>Tập tin</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>Bắt đầu thu thập</t>
+  </si>
+  <si>
+    <t>Dừng thu thập</t>
+  </si>
+  <si>
+    <t>Dọn dẹp giao diện</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu đã thu thập</t>
+  </si>
+  <si>
+    <t>Dọn dẹp giao diện và xóa tất cả các tệp tin đã tái hợp nhất và các từ điển thu thập</t>
+  </si>
+  <si>
+    <t>Công cụ</t>
+  </si>
+  <si>
+    <t>Nhận mã nâng cấp</t>
+  </si>
+  <si>
+    <t>Xác thực</t>
+  </si>
+  <si>
+    <t>Kiểm tra cập nhật</t>
+  </si>
+  <si>
+    <t>Giới thiệu về NetworkMiner</t>
+  </si>
+  <si>
+    <t>Trợ giúp</t>
+  </si>
+  <si>
+    <t>Thiết lập màu cho máy (Host)</t>
+  </si>
+  <si>
+    <t>Xóa màu cho máy (Host)</t>
+  </si>
+  <si>
+    <t>Hiện siêu dữ liệu</t>
+  </si>
+  <si>
+    <t>Mở thư mục cha</t>
+  </si>
+  <si>
+    <t>Xóa các tệp tin đã được trọn và tải lại các tệp tin trong Case</t>
+  </si>
+  <si>
+    <t>Xóa các tệp tin đã được trọn trong Case</t>
+  </si>
+  <si>
+    <t>Xuất ra CASE, CSV hoặc tập tin XML</t>
+  </si>
+  <si>
+    <t>Thiết lập màu cho quảng cáo</t>
+  </si>
+  <si>
+    <t>Thiết lập màu cho Internet Tracker</t>
+  </si>
+  <si>
+    <t>Thu gọn tất cả trừ các mục đã chọn</t>
+  </si>
+  <si>
+    <t>Tìm giá trị tiếp theo</t>
+  </si>
+  <si>
+    <t>Chọn nút cha</t>
+  </si>
+  <si>
+    <t>Bộ lọc</t>
+  </si>
+  <si>
+    <t>Bắt đầu</t>
+  </si>
+  <si>
+    <t>Sắp xếp các máy (host) trên:</t>
+  </si>
+  <si>
+    <t>Tên máy (hostname)</t>
+  </si>
+  <si>
+    <t>Các gói tin đã gửi (giảm dần)</t>
+  </si>
+  <si>
+    <t>Các gói tin đã nhận (giảm dần)</t>
+  </si>
+  <si>
+    <t>Số Byte đã gửi (giảm dần)</t>
+  </si>
+  <si>
+    <t>Số Byte đã nhận (giảm dần)</t>
+  </si>
+  <si>
+    <t>Sắp xếp và Làm mới</t>
+  </si>
+  <si>
+    <t>Tìm</t>
+  </si>
+  <si>
+    <t>Trình duyệt</t>
+  </si>
+  <si>
+    <t>Đuôi mở rộng</t>
+  </si>
+  <si>
+    <t>Giao thức</t>
+  </si>
+  <si>
+    <t>Các hình ảnh</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>Sự liên kết</t>
+  </si>
+  <si>
+    <t>Hiển thị cookie</t>
+  </si>
+  <si>
+    <t>Chạy</t>
+  </si>
+  <si>
+    <t>Thời lượng</t>
+  </si>
+  <si>
+    <t>Mã hóa</t>
+  </si>
+  <si>
+    <t>Đích</t>
+  </si>
+  <si>
+    <t>Nguồn</t>
+  </si>
+  <si>
+    <t>Xuất</t>
+  </si>
+  <si>
+    <t>Cổng máy khách</t>
+  </si>
+  <si>
+    <t>Thời gian sống của IP</t>
+  </si>
+  <si>
+    <t>Thời gian sống của DNS</t>
+  </si>
+  <si>
+    <t>Truy vấn DNS</t>
+  </si>
+  <si>
+    <t>Trả lời DNS</t>
+  </si>
+  <si>
+    <t>Kiểu từ khóa đầu vào</t>
+  </si>
+  <si>
+    <t>tìm kiếm văn bản thuần túy</t>
+  </si>
+  <si>
+    <t>Toàn bộ - Tìm kiếm đầy đủ dữ liệu gói trong tất cả các gói</t>
+  </si>
+  <si>
+    <t>lớp ứng dụng - Tìm kiếm payload của các gói tin TCP và UDP</t>
+  </si>
+  <si>
+    <t>Đã vô hiệu hóa - Vô hiệu hóa tìm kiếm dạng văn bản thuần túy</t>
+  </si>
+  <si>
+    <t>Dọn dẹp văn bản</t>
+  </si>
+  <si>
+    <t>Các khung</t>
   </si>
 </sst>
 </file>
@@ -1635,21 +1641,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1657,7 +1663,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1665,7 +1671,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1673,35 +1679,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1709,7 +1715,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1717,14 +1723,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1732,14 +1738,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1747,7 +1753,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1755,14 +1761,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1770,7 +1776,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2138,19 +2144,25 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2510,21 +2522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.09765625" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="28.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2537,17 +2549,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2560,13 +2572,13 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2583,17 +2595,17 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2606,13 +2618,13 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2629,7 +2641,7 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
@@ -2652,17 +2664,17 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2675,14 +2687,14 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2698,14 +2710,14 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2721,17 +2733,17 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="318" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2744,17 +2756,17 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2767,13 +2779,13 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2790,17 +2802,17 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2813,7 +2825,7 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
@@ -2836,14 +2848,14 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2859,14 +2871,14 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2882,17 +2894,17 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2905,14 +2917,14 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>390</v>
+      <c r="G17" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2928,7 +2940,7 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
@@ -2951,17 +2963,17 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2974,17 +2986,17 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2997,17 +3009,17 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3020,14 +3032,14 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>394</v>
+      <c r="G22" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3043,7 +3055,7 @@
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" t="s">
@@ -3066,14 +3078,14 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3089,14 +3101,14 @@
       <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3112,14 +3124,14 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3135,14 +3147,14 @@
       <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>398</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3158,14 +3170,14 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3181,14 +3193,14 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3204,14 +3216,14 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3227,14 +3239,14 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3250,14 +3262,14 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>403</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3273,14 +3285,14 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3296,14 +3308,14 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3319,14 +3331,14 @@
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3342,14 +3354,14 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3365,17 +3377,17 @@
       <c r="D37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3388,17 +3400,17 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3411,14 +3423,14 @@
       <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>410</v>
+      <c r="G39" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3434,17 +3446,17 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -3457,14 +3469,14 @@
       <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>412</v>
+      <c r="G41" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3480,17 +3492,17 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3503,17 +3515,17 @@
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3526,14 +3538,14 @@
       <c r="D44" t="s">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>415</v>
+      <c r="G44" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3549,14 +3561,14 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3572,7 +3584,7 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F46" t="s">
@@ -3595,14 +3607,14 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3618,17 +3630,17 @@
       <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3641,14 +3653,14 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>419</v>
+      <c r="G49" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3664,17 +3676,17 @@
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3687,17 +3699,17 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3710,17 +3722,17 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3733,14 +3745,14 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>423</v>
+      <c r="G53" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3756,14 +3768,14 @@
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3779,17 +3791,17 @@
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3802,17 +3814,17 @@
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3825,17 +3837,17 @@
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3848,17 +3860,17 @@
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3871,17 +3883,17 @@
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3894,17 +3906,17 @@
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3917,17 +3929,17 @@
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F61" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3940,14 +3952,14 @@
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>432</v>
+      <c r="G62" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3963,17 +3975,17 @@
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3986,14 +3998,14 @@
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F64" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>433</v>
+      <c r="G64" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4009,14 +4021,14 @@
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4032,17 +4044,17 @@
       <c r="D66" t="s">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4055,14 +4067,14 @@
       <c r="D67" t="s">
         <v>4</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>434</v>
+      <c r="G67" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4078,14 +4090,14 @@
       <c r="D68" t="s">
         <v>4</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4101,14 +4113,14 @@
       <c r="D69" t="s">
         <v>4</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4124,17 +4136,17 @@
       <c r="D70" t="s">
         <v>4</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4147,17 +4159,17 @@
       <c r="D71" t="s">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -4170,17 +4182,17 @@
       <c r="D72" t="s">
         <v>4</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4193,14 +4205,14 @@
       <c r="D73" t="s">
         <v>4</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>440</v>
+      <c r="G73" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4216,17 +4228,17 @@
       <c r="D74" t="s">
         <v>4</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4239,17 +4251,17 @@
       <c r="D75" t="s">
         <v>4</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -4262,17 +4274,17 @@
       <c r="D76" t="s">
         <v>4</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4285,17 +4297,17 @@
       <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4308,17 +4320,17 @@
       <c r="D78" t="s">
         <v>4</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4331,14 +4343,14 @@
       <c r="D79" t="s">
         <v>4</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>446</v>
+      <c r="G79" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4354,17 +4366,17 @@
       <c r="D80" t="s">
         <v>4</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -4377,17 +4389,17 @@
       <c r="D81" t="s">
         <v>4</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -4400,14 +4412,14 @@
       <c r="D82" t="s">
         <v>4</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>449</v>
+      <c r="G82" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4423,17 +4435,17 @@
       <c r="D83" t="s">
         <v>4</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4446,17 +4458,17 @@
       <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -4469,14 +4481,14 @@
       <c r="D85" t="s">
         <v>4</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>451</v>
+      <c r="G85" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4492,14 +4504,14 @@
       <c r="D86" t="s">
         <v>4</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4515,14 +4527,14 @@
       <c r="D87" t="s">
         <v>4</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4538,14 +4550,14 @@
       <c r="D88" t="s">
         <v>4</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4561,14 +4573,14 @@
       <c r="D89" t="s">
         <v>4</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4584,14 +4596,14 @@
       <c r="D90" t="s">
         <v>4</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4607,14 +4619,14 @@
       <c r="D91" t="s">
         <v>4</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F91" t="s">
         <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4630,14 +4642,14 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4653,14 +4665,14 @@
       <c r="D93" t="s">
         <v>4</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4676,14 +4688,14 @@
       <c r="D94" t="s">
         <v>4</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4699,14 +4711,14 @@
       <c r="D95" t="s">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4722,14 +4734,14 @@
       <c r="D96" t="s">
         <v>4</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4745,14 +4757,14 @@
       <c r="D97" t="s">
         <v>4</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4768,17 +4780,17 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4791,14 +4803,14 @@
       <c r="D99" t="s">
         <v>4</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>464</v>
+      <c r="G99" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4814,14 +4826,14 @@
       <c r="D100" t="s">
         <v>4</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4837,14 +4849,14 @@
       <c r="D101" t="s">
         <v>4</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4860,17 +4872,17 @@
       <c r="D102" t="s">
         <v>4</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4883,14 +4895,14 @@
       <c r="D103" t="s">
         <v>4</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>455</v>
+      <c r="G103" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4906,14 +4918,14 @@
       <c r="D104" t="s">
         <v>4</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4929,14 +4941,14 @@
       <c r="D105" t="s">
         <v>4</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4952,14 +4964,14 @@
       <c r="D106" t="s">
         <v>4</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4975,14 +4987,14 @@
       <c r="D107" t="s">
         <v>4</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4998,14 +5010,14 @@
       <c r="D108" t="s">
         <v>4</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5021,14 +5033,14 @@
       <c r="D109" t="s">
         <v>4</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5044,14 +5056,14 @@
       <c r="D110" t="s">
         <v>4</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5067,14 +5079,14 @@
       <c r="D111" t="s">
         <v>4</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5090,17 +5102,17 @@
       <c r="D112" t="s">
         <v>4</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -5113,14 +5125,14 @@
       <c r="D113" t="s">
         <v>4</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>473</v>
+      <c r="G113" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5136,14 +5148,14 @@
       <c r="D114" t="s">
         <v>4</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5159,14 +5171,14 @@
       <c r="D115" t="s">
         <v>4</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5182,14 +5194,14 @@
       <c r="D116" t="s">
         <v>4</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5205,14 +5217,14 @@
       <c r="D117" t="s">
         <v>4</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5228,14 +5240,14 @@
       <c r="D118" t="s">
         <v>4</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5251,14 +5263,14 @@
       <c r="D119" t="s">
         <v>4</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5274,17 +5286,17 @@
       <c r="D120" t="s">
         <v>4</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -5297,17 +5309,17 @@
       <c r="D121" t="s">
         <v>4</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G121" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -5320,14 +5332,14 @@
       <c r="D122" t="s">
         <v>4</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>479</v>
+      <c r="G122" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5343,17 +5355,17 @@
       <c r="D123" t="s">
         <v>4</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -5366,17 +5378,17 @@
       <c r="D124" t="s">
         <v>4</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G124" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5389,17 +5401,17 @@
       <c r="D125" t="s">
         <v>4</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G125" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5412,14 +5424,14 @@
       <c r="D126" t="s">
         <v>4</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>394</v>
+      <c r="G126" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5435,14 +5447,14 @@
       <c r="D127" t="s">
         <v>4</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5458,14 +5470,14 @@
       <c r="D128" t="s">
         <v>4</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5481,14 +5493,14 @@
       <c r="D129" t="s">
         <v>4</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5504,14 +5516,14 @@
       <c r="D130" t="s">
         <v>4</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5527,14 +5539,14 @@
       <c r="D131" t="s">
         <v>4</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5550,14 +5562,14 @@
       <c r="D132" t="s">
         <v>4</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5573,14 +5585,14 @@
       <c r="D133" t="s">
         <v>4</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>251</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5596,14 +5608,14 @@
       <c r="D134" t="s">
         <v>4</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>484</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5619,14 +5631,14 @@
       <c r="D135" t="s">
         <v>4</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5642,14 +5654,14 @@
       <c r="D136" t="s">
         <v>4</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5665,14 +5677,14 @@
       <c r="D137" t="s">
         <v>4</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5688,7 +5700,7 @@
       <c r="D138" t="s">
         <v>4</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F138" t="s">
@@ -5698,7 +5710,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5711,14 +5723,14 @@
       <c r="D139" t="s">
         <v>4</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>455</v>
+      <c r="G139" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5734,14 +5746,14 @@
       <c r="D140" t="s">
         <v>4</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5757,14 +5769,14 @@
       <c r="D141" t="s">
         <v>4</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5780,14 +5792,14 @@
       <c r="D142" t="s">
         <v>4</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5803,17 +5815,17 @@
       <c r="D143" t="s">
         <v>4</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -5826,17 +5838,17 @@
       <c r="D144" t="s">
         <v>4</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G144" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -5849,14 +5861,14 @@
       <c r="D145" t="s">
         <v>4</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>492</v>
+      <c r="G145" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5872,17 +5884,17 @@
       <c r="D146" t="s">
         <v>4</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -5895,14 +5907,14 @@
       <c r="D147" t="s">
         <v>4</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>455</v>
+      <c r="G147" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5918,14 +5930,14 @@
       <c r="D148" t="s">
         <v>4</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5941,14 +5953,14 @@
       <c r="D149" t="s">
         <v>4</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5964,14 +5976,14 @@
       <c r="D150" t="s">
         <v>4</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5987,14 +5999,14 @@
       <c r="D151" t="s">
         <v>4</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6010,14 +6022,14 @@
       <c r="D152" t="s">
         <v>4</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>494</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6033,17 +6045,17 @@
       <c r="D153" t="s">
         <v>4</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -6056,14 +6068,14 @@
       <c r="D154" t="s">
         <v>4</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>495</v>
+      <c r="G154" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6079,14 +6091,14 @@
       <c r="D155" t="s">
         <v>4</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>496</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6102,14 +6114,14 @@
       <c r="D156" t="s">
         <v>4</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>497</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6125,14 +6137,14 @@
       <c r="D157" t="s">
         <v>4</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>292</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6148,17 +6160,17 @@
       <c r="D158" t="s">
         <v>4</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -6171,14 +6183,14 @@
       <c r="D159" t="s">
         <v>4</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>499</v>
+      <c r="G159" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6194,7 +6206,7 @@
       <c r="D160" t="s">
         <v>4</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F160" t="s">
@@ -6217,14 +6229,14 @@
       <c r="D161" t="s">
         <v>4</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6240,14 +6252,14 @@
       <c r="D162" t="s">
         <v>4</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6263,14 +6275,14 @@
       <c r="D163" t="s">
         <v>4</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6286,14 +6298,14 @@
       <c r="D164" t="s">
         <v>4</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6309,14 +6321,14 @@
       <c r="D165" t="s">
         <v>4</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6332,14 +6344,14 @@
       <c r="D166" t="s">
         <v>4</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6355,14 +6367,14 @@
       <c r="D167" t="s">
         <v>4</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>309</v>
       </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6378,14 +6390,14 @@
       <c r="D168" t="s">
         <v>4</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6401,14 +6413,14 @@
       <c r="D169" t="s">
         <v>4</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6424,17 +6436,17 @@
       <c r="D170" t="s">
         <v>4</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -6447,14 +6459,14 @@
       <c r="D171" t="s">
         <v>4</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F171" t="s">
         <v>4</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>505</v>
+      <c r="G171" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6470,17 +6482,17 @@
       <c r="D172" t="s">
         <v>4</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F172" t="s">
         <v>4</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -6493,17 +6505,17 @@
       <c r="D173" t="s">
         <v>4</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F173" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G173" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -6516,14 +6528,14 @@
       <c r="D174" t="s">
         <v>4</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F174" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>508</v>
+      <c r="G174" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6539,14 +6551,14 @@
       <c r="D175" t="s">
         <v>4</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F175" t="s">
         <v>4</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6562,14 +6574,14 @@
       <c r="D176" t="s">
         <v>4</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F176" t="s">
         <v>4</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6585,14 +6597,14 @@
       <c r="D177" t="s">
         <v>4</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6608,14 +6620,14 @@
       <c r="D178" t="s">
         <v>4</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F178" t="s">
         <v>4</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>510</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6631,14 +6643,14 @@
       <c r="D179" t="s">
         <v>4</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F179" t="s">
         <v>4</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6654,14 +6666,14 @@
       <c r="D180" t="s">
         <v>4</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>330</v>
       </c>
       <c r="F180" t="s">
         <v>4</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6677,17 +6689,17 @@
       <c r="D181" t="s">
         <v>4</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F181" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -6700,14 +6712,14 @@
       <c r="D182" t="s">
         <v>4</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F182" t="s">
         <v>4</v>
       </c>
-      <c r="G182" s="2" t="s">
-        <v>513</v>
+      <c r="G182" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6723,14 +6735,14 @@
       <c r="D183" t="s">
         <v>4</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6746,14 +6758,14 @@
       <c r="D184" t="s">
         <v>4</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F184" t="s">
         <v>4</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>515</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6769,17 +6781,17 @@
       <c r="D185" t="s">
         <v>4</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F185" t="s">
         <v>4</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -6792,17 +6804,17 @@
       <c r="D186" t="s">
         <v>4</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
       </c>
-      <c r="G186" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G186" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -6815,17 +6827,17 @@
       <c r="D187" t="s">
         <v>4</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>344</v>
       </c>
       <c r="F187" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G187" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -6838,17 +6850,17 @@
       <c r="D188" t="s">
         <v>4</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F188" t="s">
         <v>4</v>
       </c>
-      <c r="G188" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G188" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -6861,17 +6873,17 @@
       <c r="D189" t="s">
         <v>4</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="2" t="s">
         <v>348</v>
       </c>
       <c r="F189" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G189" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -6884,14 +6896,14 @@
       <c r="D190" t="s">
         <v>4</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F190" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>521</v>
+      <c r="G190" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6907,14 +6919,14 @@
       <c r="D191" t="s">
         <v>4</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F191" t="s">
         <v>4</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6930,14 +6942,14 @@
       <c r="D192" t="s">
         <v>4</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>354</v>
       </c>
       <c r="F192" t="s">
         <v>4</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6953,14 +6965,14 @@
       <c r="D193" t="s">
         <v>4</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F193" t="s">
         <v>4</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>524</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6976,14 +6988,14 @@
       <c r="D194" t="s">
         <v>4</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="2" t="s">
         <v>358</v>
       </c>
       <c r="F194" t="s">
         <v>4</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6999,14 +7011,14 @@
       <c r="D195" t="s">
         <v>4</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F195" t="s">
         <v>4</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>524</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7022,14 +7034,14 @@
       <c r="D196" t="s">
         <v>4</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="2" t="s">
         <v>361</v>
       </c>
       <c r="F196" t="s">
         <v>4</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>361</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7045,14 +7057,14 @@
       <c r="D197" t="s">
         <v>4</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F197" t="s">
         <v>4</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>524</v>
+        <v>445</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7068,14 +7080,14 @@
       <c r="D198" t="s">
         <v>4</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="2" t="s">
         <v>364</v>
       </c>
       <c r="F198" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>526</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7091,14 +7103,14 @@
       <c r="D199" t="s">
         <v>4</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F199" t="s">
         <v>4</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7114,7 +7126,7 @@
       <c r="D200" t="s">
         <v>4</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>367</v>
       </c>
       <c r="F200" t="s">
@@ -7124,7 +7136,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7137,17 +7149,17 @@
       <c r="D201" t="s">
         <v>4</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F201" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G201" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7160,17 +7172,17 @@
       <c r="D202" t="s">
         <v>4</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="2" t="s">
         <v>371</v>
       </c>
       <c r="F202" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G202" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7183,17 +7195,17 @@
       <c r="D203" t="s">
         <v>4</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F203" t="s">
         <v>4</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="G203" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7206,14 +7218,14 @@
       <c r="D204" t="s">
         <v>4</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="2" t="s">
         <v>375</v>
       </c>
       <c r="F204" t="s">
         <v>4</v>
       </c>
-      <c r="G204" s="2" t="s">
-        <v>529</v>
+      <c r="G204" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7229,17 +7241,17 @@
       <c r="D205" t="s">
         <v>4</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F205" t="s">
         <v>4</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7252,14 +7264,14 @@
       <c r="D206" t="s">
         <v>4</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F206" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="2" t="s">
-        <v>531</v>
+      <c r="G206" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7275,14 +7287,14 @@
       <c r="D207" t="s">
         <v>4</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="2" t="s">
         <v>380</v>
       </c>
       <c r="F207" t="s">
         <v>4</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
